--- a/Warehouse/warehouse.xlsx
+++ b/Warehouse/warehouse.xlsx
@@ -1237,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="0">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0">
         <v>3.99</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0">
         <v>4.99</v>
